--- a/FMP_supplementary_tableS3.xlsx
+++ b/FMP_supplementary_tableS3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lbrussel/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98384685-E4A8-1C43-B0BE-02A8BAEE664A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DC607D-B6A2-3344-A3CD-FF9B7D0D86A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table S3A gene untreated" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="602">
   <si>
     <t>sampleID</t>
   </si>
@@ -434,9 +434,6 @@
     <t>chr5</t>
   </si>
   <si>
-    <t>-3.88</t>
-  </si>
-  <si>
     <t>-4.6</t>
   </si>
   <si>
@@ -1205,21 +1202,9 @@
     <t>ENSE00001215729.7</t>
   </si>
   <si>
-    <t>24.1</t>
-  </si>
-  <si>
-    <t>165.26</t>
-  </si>
-  <si>
     <t>chr20</t>
   </si>
   <si>
-    <t>TGM2</t>
-  </si>
-  <si>
-    <t>ENSE00003554130.1</t>
-  </si>
-  <si>
     <t>seqnames</t>
   </si>
   <si>
@@ -1622,9 +1607,6 @@
     <t>Candidate indiv 6, no expression detected, coverage 10 vs &gt;200 IGV in other samples</t>
   </si>
   <si>
-    <t>exon skip, but also in other samples</t>
-  </si>
-  <si>
     <t xml:space="preserve">candidate gene individual 10, no expression, no abrrant splicing </t>
   </si>
   <si>
@@ -1640,9 +1622,6 @@
     <t>Gene expression zscore -3.7, no aberrant splicing detected</t>
   </si>
   <si>
-    <t>Unclear, many sashimi lines; also found in FRASER top 20</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aberrant splicing FRASER rank 972 </t>
   </si>
   <si>
@@ -1685,9 +1664,6 @@
     <t>positive control for exon skip (double)</t>
   </si>
   <si>
-    <t>Skip, but also other samples</t>
-  </si>
-  <si>
     <t>Downregulated 38%</t>
   </si>
   <si>
@@ -1790,9 +1766,6 @@
     <t>FP, low gene coverage, no detectable splicing events</t>
   </si>
   <si>
-    <t>unclear, many lines sashimi plot (also in other samples)</t>
-  </si>
-  <si>
     <t>unclear, many lines sashimi plot</t>
   </si>
   <si>
@@ -1830,6 +1803,33 @@
   </si>
   <si>
     <t>technically correct; 1 base shift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exon skip very small percent of junction counts, also other samples </t>
+  </si>
+  <si>
+    <t>CPXM2</t>
+  </si>
+  <si>
+    <t>ENSE00003688522.1</t>
+  </si>
+  <si>
+    <t>Individual_14_untreated</t>
+  </si>
+  <si>
+    <t>137.63</t>
+  </si>
+  <si>
+    <t>0.4309317</t>
+  </si>
+  <si>
+    <t>FP, no (aberrant) splicing, gene low coverage</t>
+  </si>
+  <si>
+    <t>one or two exon skips, depends on transcript-1 naturally ocurring</t>
+  </si>
+  <si>
+    <t>one or two exon skips, FRASER rank 3, depends on transcript-1 naturally ocurring</t>
   </si>
 </sst>
 </file>
@@ -2016,7 +2016,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2208,6 +2208,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4DA72E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -2378,7 +2384,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2395,7 +2401,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2409,14 +2414,12 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2430,6 +2433,12 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2812,8 +2821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2828,7 +2837,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>11</v>
@@ -2864,7 +2873,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>12</v>
@@ -2907,11 +2916,11 @@
       <c r="L2">
         <v>38992546</v>
       </c>
-      <c r="M2" s="22" t="s">
-        <v>562</v>
+      <c r="M2" s="21" t="s">
+        <v>554</v>
       </c>
       <c r="N2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -2951,8 +2960,8 @@
       <c r="L3">
         <v>42913299</v>
       </c>
-      <c r="M3" s="23" t="s">
-        <v>559</v>
+      <c r="M3" s="22" t="s">
+        <v>551</v>
       </c>
       <c r="N3" t="s">
         <v>27</v>
@@ -2995,8 +3004,8 @@
       <c r="L4">
         <v>110205042</v>
       </c>
-      <c r="M4" s="23" t="s">
-        <v>560</v>
+      <c r="M4" s="22" t="s">
+        <v>552</v>
       </c>
       <c r="N4" t="s">
         <v>35</v>
@@ -3039,8 +3048,8 @@
       <c r="L5">
         <v>48470260</v>
       </c>
-      <c r="M5" s="23" t="s">
-        <v>561</v>
+      <c r="M5" s="22" t="s">
+        <v>553</v>
       </c>
       <c r="N5" t="s">
         <v>27</v>
@@ -3083,8 +3092,8 @@
       <c r="L6">
         <v>22869362</v>
       </c>
-      <c r="M6" s="23" t="s">
-        <v>563</v>
+      <c r="M6" s="22" t="s">
+        <v>555</v>
       </c>
       <c r="N6" t="s">
         <v>48</v>
@@ -3127,8 +3136,8 @@
       <c r="L7">
         <v>48545109</v>
       </c>
-      <c r="M7" s="24" t="s">
-        <v>569</v>
+      <c r="M7" s="23" t="s">
+        <v>561</v>
       </c>
       <c r="N7" t="s">
         <v>27</v>
@@ -3171,8 +3180,8 @@
       <c r="L8">
         <v>134713031</v>
       </c>
-      <c r="M8" s="24" t="s">
-        <v>564</v>
+      <c r="M8" s="23" t="s">
+        <v>556</v>
       </c>
       <c r="N8" t="s">
         <v>60</v>
@@ -3215,8 +3224,8 @@
       <c r="L9">
         <v>19431696</v>
       </c>
-      <c r="M9" s="23" t="s">
-        <v>565</v>
+      <c r="M9" s="22" t="s">
+        <v>557</v>
       </c>
       <c r="N9" t="s">
         <v>66</v>
@@ -3259,8 +3268,8 @@
       <c r="L10">
         <v>27756295</v>
       </c>
-      <c r="M10" s="23" t="s">
-        <v>558</v>
+      <c r="M10" s="22" t="s">
+        <v>550</v>
       </c>
       <c r="N10" t="s">
         <v>73</v>
@@ -3303,8 +3312,8 @@
       <c r="L11">
         <v>19436075</v>
       </c>
-      <c r="M11" s="23" t="s">
-        <v>566</v>
+      <c r="M11" s="22" t="s">
+        <v>558</v>
       </c>
       <c r="N11" t="s">
         <v>27</v>
@@ -3347,8 +3356,8 @@
       <c r="L12">
         <v>22980368</v>
       </c>
-      <c r="M12" s="23" t="s">
-        <v>567</v>
+      <c r="M12" s="22" t="s">
+        <v>559</v>
       </c>
       <c r="N12" t="s">
         <v>27</v>
@@ -3391,8 +3400,8 @@
       <c r="L13">
         <v>127407855</v>
       </c>
-      <c r="M13" s="23" t="s">
-        <v>568</v>
+      <c r="M13" s="22" t="s">
+        <v>560</v>
       </c>
       <c r="N13" t="s">
         <v>27</v>
@@ -3435,8 +3444,8 @@
       <c r="L14">
         <v>28319771</v>
       </c>
-      <c r="M14" s="23" t="s">
-        <v>554</v>
+      <c r="M14" s="22" t="s">
+        <v>546</v>
       </c>
       <c r="N14" t="s">
         <v>27</v>
@@ -3479,8 +3488,8 @@
       <c r="L15">
         <v>74019288</v>
       </c>
-      <c r="M15" s="23" t="s">
-        <v>555</v>
+      <c r="M15" s="22" t="s">
+        <v>547</v>
       </c>
       <c r="N15" t="s">
         <v>27</v>
@@ -3523,8 +3532,8 @@
       <c r="L16">
         <v>142578733</v>
       </c>
-      <c r="M16" s="23" t="s">
-        <v>570</v>
+      <c r="M16" s="22" t="s">
+        <v>562</v>
       </c>
       <c r="N16" t="s">
         <v>103</v>
@@ -3567,8 +3576,8 @@
       <c r="L17">
         <v>43596038</v>
       </c>
-      <c r="M17" s="23" t="s">
-        <v>567</v>
+      <c r="M17" s="22" t="s">
+        <v>559</v>
       </c>
       <c r="N17" t="s">
         <v>27</v>
@@ -3611,8 +3620,8 @@
       <c r="L18">
         <v>48578350</v>
       </c>
-      <c r="M18" s="24" t="s">
-        <v>531</v>
+      <c r="M18" s="23" t="s">
+        <v>526</v>
       </c>
       <c r="N18" t="s">
         <v>27</v>
@@ -3655,8 +3664,8 @@
       <c r="L19">
         <v>49867555</v>
       </c>
-      <c r="M19" s="23" t="s">
-        <v>571</v>
+      <c r="M19" s="22" t="s">
+        <v>563</v>
       </c>
       <c r="N19" t="s">
         <v>117</v>
@@ -3699,8 +3708,8 @@
       <c r="L20">
         <v>56684196</v>
       </c>
-      <c r="M20" s="23" t="s">
-        <v>556</v>
+      <c r="M20" s="22" t="s">
+        <v>548</v>
       </c>
       <c r="N20" t="s">
         <v>27</v>
@@ -3743,8 +3752,8 @@
       <c r="L21">
         <v>33264708</v>
       </c>
-      <c r="M21" s="23" t="s">
-        <v>557</v>
+      <c r="M21" s="22" t="s">
+        <v>549</v>
       </c>
       <c r="N21" t="s">
         <v>27</v>
@@ -3999,8 +4008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4015,13 +4024,13 @@
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -4054,7 +4063,7 @@
         <v>10</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>12</v>
@@ -4065,31 +4074,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E2" s="1">
         <v>892368565.83294106</v>
       </c>
       <c r="F2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" t="s">
         <v>156</v>
-      </c>
-      <c r="G2" t="s">
-        <v>157</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J2" t="s">
         <v>158</v>
-      </c>
-      <c r="J2" t="s">
-        <v>159</v>
       </c>
       <c r="K2" t="s">
         <v>40</v>
@@ -4101,7 +4110,7 @@
         <v>47244924</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="O2" t="s">
         <v>27</v>
@@ -4112,22 +4121,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E3" s="1">
         <v>955513335.48059702</v>
       </c>
       <c r="F3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -4136,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K3" t="s">
         <v>40</v>
@@ -4148,7 +4157,7 @@
         <v>47247419</v>
       </c>
       <c r="N3" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="O3" t="s">
         <v>27</v>
@@ -4159,31 +4168,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E4" s="1">
         <v>15543830513.6145</v>
       </c>
       <c r="F4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K4" t="s">
         <v>40</v>
@@ -4195,7 +4204,7 @@
         <v>47245482</v>
       </c>
       <c r="N4" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="O4" t="s">
         <v>27</v>
@@ -4206,31 +4215,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E5" s="1">
         <v>1674196651.80107</v>
       </c>
       <c r="F5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5" t="s">
+        <v>168</v>
+      </c>
+      <c r="J5" t="s">
         <v>169</v>
-      </c>
-      <c r="J5" t="s">
-        <v>170</v>
       </c>
       <c r="K5" t="s">
         <v>40</v>
@@ -4242,7 +4251,7 @@
         <v>47247221</v>
       </c>
       <c r="N5" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="O5" t="s">
         <v>27</v>
@@ -4253,19 +4262,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E6" s="1">
         <v>26912121549.030499</v>
       </c>
       <c r="F6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G6" t="s">
         <v>22</v>
@@ -4277,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K6" t="s">
         <v>40</v>
@@ -4289,7 +4298,7 @@
         <v>47247699</v>
       </c>
       <c r="N6" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="O6" t="s">
         <v>27</v>
@@ -4303,7 +4312,7 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -4315,7 +4324,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -4324,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K7" t="s">
         <v>18</v>
@@ -4336,10 +4345,10 @@
         <v>38992804</v>
       </c>
       <c r="N7" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="O7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -4350,7 +4359,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -4362,7 +4371,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4371,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K8" t="s">
         <v>18</v>
@@ -4383,10 +4392,10 @@
         <v>38989610</v>
       </c>
       <c r="N8" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="O8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -4397,7 +4406,7 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -4415,10 +4424,10 @@
         <v>40</v>
       </c>
       <c r="I9" t="s">
+        <v>181</v>
+      </c>
+      <c r="J9" t="s">
         <v>182</v>
-      </c>
-      <c r="J9" t="s">
-        <v>183</v>
       </c>
       <c r="K9" t="s">
         <v>25</v>
@@ -4430,7 +4439,7 @@
         <v>42897047</v>
       </c>
       <c r="N9" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="O9" t="s">
         <v>27</v>
@@ -4444,7 +4453,7 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -4456,7 +4465,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -4465,7 +4474,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K10" t="s">
         <v>18</v>
@@ -4477,10 +4486,10 @@
         <v>38991626</v>
       </c>
       <c r="N10" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="O10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -4491,7 +4500,7 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
@@ -4503,16 +4512,16 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H11">
         <v>264</v>
       </c>
       <c r="I11" t="s">
+        <v>189</v>
+      </c>
+      <c r="J11" t="s">
         <v>190</v>
-      </c>
-      <c r="J11" t="s">
-        <v>191</v>
       </c>
       <c r="K11" t="s">
         <v>25</v>
@@ -4524,7 +4533,7 @@
         <v>42904276</v>
       </c>
       <c r="N11" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="O11" t="s">
         <v>27</v>
@@ -4538,7 +4547,7 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -4550,7 +4559,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -4559,7 +4568,7 @@
         <v>75</v>
       </c>
       <c r="J12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K12" t="s">
         <v>18</v>
@@ -4571,24 +4580,24 @@
         <v>38986091</v>
       </c>
       <c r="N12" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="O12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="17">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" t="s">
         <v>200</v>
       </c>
-      <c r="C13" t="s">
-        <v>201</v>
-      </c>
       <c r="D13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E13" s="1">
         <v>100489408573.226</v>
@@ -4597,16 +4606,16 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H13">
         <v>22</v>
       </c>
       <c r="I13" t="s">
+        <v>197</v>
+      </c>
+      <c r="J13" t="s">
         <v>198</v>
-      </c>
-      <c r="J13" t="s">
-        <v>199</v>
       </c>
       <c r="K13" t="s">
         <v>71</v>
@@ -4617,8 +4626,8 @@
       <c r="M13">
         <v>56672809</v>
       </c>
-      <c r="N13" s="12" t="s">
-        <v>532</v>
+      <c r="N13" s="13" t="s">
+        <v>593</v>
       </c>
       <c r="O13" t="s">
         <v>27</v>
@@ -4632,7 +4641,7 @@
         <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D14" t="s">
         <v>42</v>
@@ -4644,16 +4653,16 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H14">
         <v>130</v>
       </c>
       <c r="I14" t="s">
+        <v>201</v>
+      </c>
+      <c r="J14" t="s">
         <v>202</v>
-      </c>
-      <c r="J14" t="s">
-        <v>203</v>
       </c>
       <c r="K14" t="s">
         <v>46</v>
@@ -4665,7 +4674,7 @@
         <v>22860789</v>
       </c>
       <c r="N14" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="O14" t="s">
         <v>48</v>
@@ -4679,7 +4688,7 @@
         <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D15" t="s">
         <v>49</v>
@@ -4691,16 +4700,16 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K15" t="s">
         <v>53</v>
@@ -4712,7 +4721,7 @@
         <v>48543747</v>
       </c>
       <c r="N15" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="O15" t="s">
         <v>27</v>
@@ -4723,10 +4732,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" t="s">
         <v>209</v>
-      </c>
-      <c r="C16" t="s">
-        <v>210</v>
       </c>
       <c r="D16" t="s">
         <v>42</v>
@@ -4738,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -4747,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K16" t="s">
         <v>97</v>
@@ -4759,7 +4768,7 @@
         <v>96379788</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="O16" t="s">
         <v>27</v>
@@ -4773,7 +4782,7 @@
         <v>111</v>
       </c>
       <c r="C17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D17" t="s">
         <v>49</v>
@@ -4785,7 +4794,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -4794,7 +4803,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K17" t="s">
         <v>53</v>
@@ -4806,7 +4815,7 @@
         <v>48577020</v>
       </c>
       <c r="N17" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="O17" t="s">
         <v>27</v>
@@ -4820,7 +4829,7 @@
         <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D18" t="s">
         <v>28</v>
@@ -4832,16 +4841,16 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H18">
         <v>1640</v>
       </c>
       <c r="I18" t="s">
+        <v>214</v>
+      </c>
+      <c r="J18" t="s">
         <v>215</v>
-      </c>
-      <c r="J18" t="s">
-        <v>216</v>
       </c>
       <c r="K18" t="s">
         <v>58</v>
@@ -4853,7 +4862,7 @@
         <v>134602933</v>
       </c>
       <c r="N18" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="O18" t="s">
         <v>60</v>
@@ -4867,7 +4876,7 @@
         <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D19" t="s">
         <v>42</v>
@@ -4879,16 +4888,16 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H19">
         <v>282</v>
       </c>
       <c r="I19" t="s">
+        <v>218</v>
+      </c>
+      <c r="J19" t="s">
         <v>219</v>
-      </c>
-      <c r="J19" t="s">
-        <v>220</v>
       </c>
       <c r="K19" t="s">
         <v>46</v>
@@ -4900,7 +4909,7 @@
         <v>22851870</v>
       </c>
       <c r="N19" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="O19" t="s">
         <v>48</v>
@@ -4914,7 +4923,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
@@ -4935,7 +4944,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K20" t="s">
         <v>18</v>
@@ -4947,10 +4956,10 @@
         <v>38986412</v>
       </c>
       <c r="N20" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="O20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -4961,7 +4970,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
@@ -4979,10 +4988,10 @@
         <v>5</v>
       </c>
       <c r="I21" t="s">
+        <v>226</v>
+      </c>
+      <c r="J21" t="s">
         <v>227</v>
-      </c>
-      <c r="J21" t="s">
-        <v>228</v>
       </c>
       <c r="K21" t="s">
         <v>18</v>
@@ -4994,10 +5003,10 @@
         <v>38984231</v>
       </c>
       <c r="N21" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="O21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -5011,7 +5020,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5021,18 +5030,18 @@
     <col min="4" max="4" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="53.1640625" customWidth="1"/>
+    <col min="15" max="15" width="60.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
@@ -5067,8 +5076,8 @@
       <c r="N1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="15" t="s">
-        <v>530</v>
+      <c r="O1" s="2" t="s">
+        <v>525</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>12</v>
@@ -5082,7 +5091,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>13</v>
@@ -5094,16 +5103,16 @@
         <v>0</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H2" s="5">
         <v>1050000000</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>232</v>
       </c>
       <c r="K2" s="4">
         <v>1</v>
@@ -5118,10 +5127,10 @@
         <v>38992804</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="17">
@@ -5129,10 +5138,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>237</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>238</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>36</v>
@@ -5144,22 +5153,22 @@
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H3" s="5">
         <v>1180000000</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>236</v>
       </c>
       <c r="K3" s="4">
         <v>3</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M3" s="4">
         <v>27865317</v>
@@ -5168,10 +5177,10 @@
         <v>27865798</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="17">
@@ -5179,13 +5188,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>245</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
@@ -5194,16 +5203,16 @@
         <v>0</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H4" s="5">
         <v>13300000</v>
       </c>
       <c r="I4" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>242</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>243</v>
       </c>
       <c r="K4" s="4">
         <v>1</v>
@@ -5218,10 +5227,10 @@
         <v>41055230</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="17">
@@ -5229,10 +5238,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>248</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>249</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>104</v>
@@ -5244,22 +5253,22 @@
         <v>0</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H5" s="5">
         <v>136000000</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K5" s="4">
         <v>1</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M5" s="4">
         <v>26251614</v>
@@ -5268,10 +5277,10 @@
         <v>26252075</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="17">
@@ -5279,13 +5288,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>253</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
@@ -5294,22 +5303,22 @@
         <v>0</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H6" s="5">
         <v>136000000</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K6" s="4">
         <v>1</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M6" s="4">
         <v>26045384</v>
@@ -5318,10 +5327,10 @@
         <v>26045869</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="17">
@@ -5329,13 +5338,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>256</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E7" s="4">
         <v>0</v>
@@ -5350,16 +5359,16 @@
         <v>1400000000</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K7" s="4">
         <v>1</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M7" s="4">
         <v>27890315</v>
@@ -5368,10 +5377,10 @@
         <v>27890826</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="17">
@@ -5379,10 +5388,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>260</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>261</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>83</v>
@@ -5394,22 +5403,22 @@
         <v>0</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H8" s="5">
         <v>1440000000</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>259</v>
-      </c>
       <c r="K8" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M8" s="4">
         <v>1312098</v>
@@ -5418,7 +5427,7 @@
         <v>1314758</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>27</v>
@@ -5429,10 +5438,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>264</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>83</v>
@@ -5444,19 +5453,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H9" s="5">
         <v>1440000000</v>
       </c>
       <c r="I9" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>259</v>
-      </c>
       <c r="K9" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>135</v>
@@ -5468,10 +5477,10 @@
         <v>54456377</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="17">
@@ -5479,10 +5488,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>267</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>268</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>83</v>
@@ -5494,22 +5503,22 @@
         <v>0</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H10" s="5">
         <v>1440000000</v>
       </c>
       <c r="I10" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>259</v>
-      </c>
       <c r="K10" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M10" s="4">
         <v>27814302</v>
@@ -5518,10 +5527,10 @@
         <v>27814777</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="17">
@@ -5529,13 +5538,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>274</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
@@ -5544,22 +5553,22 @@
         <v>0</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H11" s="5">
         <v>167000000</v>
       </c>
       <c r="I11" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>272</v>
       </c>
       <c r="K11" s="4">
         <v>9</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M11" s="4">
         <v>77193369</v>
@@ -5568,7 +5577,7 @@
         <v>77196985</v>
       </c>
       <c r="O11" s="11" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>27</v>
@@ -5579,10 +5588,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>276</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>277</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>83</v>
@@ -5594,19 +5603,19 @@
         <v>0</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H12" s="5">
         <v>188000000</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>91</v>
@@ -5618,7 +5627,7 @@
         <v>138953990</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>27</v>
@@ -5629,31 +5638,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>201</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E13" s="4">
         <v>22</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="H13" s="5">
         <v>2890000000</v>
       </c>
       <c r="I13" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>279</v>
       </c>
       <c r="K13" s="4">
         <v>6</v>
@@ -5667,8 +5676,8 @@
       <c r="N13" s="4">
         <v>56672809</v>
       </c>
-      <c r="O13" s="14" t="s">
-        <v>553</v>
+      <c r="O13" s="13" t="s">
+        <v>593</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>27</v>
@@ -5679,10 +5688,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>283</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>83</v>
@@ -5694,22 +5703,22 @@
         <v>0</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H14" s="5">
         <v>295000000</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K14" s="4">
         <v>5</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M14" s="4">
         <v>27194364</v>
@@ -5718,10 +5727,10 @@
         <v>27198442</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -5732,7 +5741,7 @@
         <v>111</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>49</v>
@@ -5744,16 +5753,16 @@
         <v>0</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H15" s="5">
         <v>338000000</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K15" s="4">
         <v>50</v>
@@ -5768,7 +5777,7 @@
         <v>48577020</v>
       </c>
       <c r="O15" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>27</v>
@@ -5782,7 +5791,7 @@
         <v>41</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>36</v>
@@ -5794,16 +5803,16 @@
         <v>0</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H16" s="5">
         <v>34700000</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K16" s="4">
         <v>3</v>
@@ -5818,7 +5827,7 @@
         <v>48462144</v>
       </c>
       <c r="O16" s="11" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>27</v>
@@ -5829,10 +5838,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>292</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>93</v>
@@ -5844,19 +5853,19 @@
         <v>0</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H17" s="5">
         <v>376000000</v>
       </c>
       <c r="I17" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>289</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>290</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>131</v>
@@ -5868,10 +5877,10 @@
         <v>102914811</v>
       </c>
       <c r="O17" s="11" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="17">
@@ -5882,7 +5891,7 @@
         <v>41</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>36</v>
@@ -5894,16 +5903,16 @@
         <v>0</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H18" s="5">
         <v>392000000</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K18" s="4">
         <v>3</v>
@@ -5918,7 +5927,7 @@
         <v>48466322</v>
       </c>
       <c r="O18" s="11" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>27</v>
@@ -5932,7 +5941,7 @@
         <v>41</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>36</v>
@@ -5944,16 +5953,16 @@
         <v>0</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H19" s="5">
         <v>404000000</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K19" s="4">
         <v>3</v>
@@ -5968,7 +5977,7 @@
         <v>48459876</v>
       </c>
       <c r="O19" s="11" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>27</v>
@@ -5979,13 +5988,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>302</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E20" s="4">
         <v>0</v>
@@ -5994,19 +6003,19 @@
         <v>0</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H20" s="5">
         <v>412000000</v>
       </c>
       <c r="I20" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>299</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>300</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>86</v>
@@ -6017,8 +6026,8 @@
       <c r="N20" s="4">
         <v>99062099</v>
       </c>
-      <c r="O20" s="13" t="s">
-        <v>597</v>
+      <c r="O20" s="12" t="s">
+        <v>588</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>27</v>
@@ -6029,13 +6038,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>305</v>
-      </c>
       <c r="D21" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E21" s="4">
         <v>0</v>
@@ -6044,16 +6053,16 @@
         <v>0</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H21" s="5">
         <v>412000000</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K21" s="4">
         <v>6</v>
@@ -6068,10 +6077,10 @@
         <v>152657542</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -6084,25 +6093,28 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="53" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
@@ -6134,149 +6146,149 @@
       <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="15" t="s">
-        <v>530</v>
+      <c r="N1" s="14" t="s">
+        <v>525</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2">
+    <row r="2" spans="1:15" s="28" customFormat="1">
+      <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1290</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="H2" s="5">
-        <v>115000000000</v>
-      </c>
-      <c r="I2" s="4">
-        <v>1</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="L2" s="4">
-        <v>122070053</v>
-      </c>
-      <c r="M2" s="4">
-        <v>122070168</v>
+      <c r="B2" s="29" t="s">
+        <v>594</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="E2" s="29">
+        <v>0</v>
+      </c>
+      <c r="F2" s="29">
+        <v>0</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>597</v>
+      </c>
+      <c r="H2" s="31">
+        <v>6.1094670000000005E-7</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="J2" s="30">
+        <v>-4.7300000000000004</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="L2" s="8">
+        <v>123754663</v>
+      </c>
+      <c r="M2" s="29">
+        <v>123754762</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>598</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>311</v>
+        <v>599</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>209</v>
+        <v>308</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>210</v>
+        <v>309</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
+        <v>1290</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>305</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>208</v>
+        <v>306</v>
       </c>
       <c r="H3" s="5">
-        <v>144000000000</v>
+        <v>1.14759E-5</v>
       </c>
       <c r="I3" s="4">
         <v>1</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>22</v>
+        <v>307</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="L3" s="4">
-        <v>96379688</v>
+        <v>122070053</v>
       </c>
       <c r="M3" s="4">
-        <v>96379788</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>599</v>
+        <v>122070168</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>589</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>27</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>315</v>
+        <v>208</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>316</v>
+        <v>209</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="E4" s="4">
-        <v>82</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>312</v>
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>313</v>
+        <v>207</v>
       </c>
       <c r="H4" s="5">
-        <v>36500000000</v>
+        <v>1.442464E-5</v>
       </c>
       <c r="I4" s="4">
         <v>1</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>314</v>
+        <v>22</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="L4" s="4">
-        <v>103548855</v>
+        <v>96379688</v>
       </c>
       <c r="M4" s="4">
-        <v>103550971</v>
-      </c>
-      <c r="N4" s="17" t="s">
-        <v>600</v>
+        <v>96379788</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>590</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>27</v>
@@ -6284,187 +6296,187 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E5" s="4">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="H5" s="5">
-        <v>46000000000</v>
+        <v>3.6540630000000003E-5</v>
       </c>
       <c r="I5" s="4">
         <v>1</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>105</v>
+        <v>313</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="L5" s="4">
-        <v>106991364</v>
+        <v>103548855</v>
       </c>
       <c r="M5" s="4">
-        <v>106992001</v>
-      </c>
-      <c r="N5" s="17" t="s">
-        <v>541</v>
+        <v>103550971</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>591</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>321</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>240</v>
+        <v>152</v>
       </c>
       <c r="E6" s="4">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="H6" s="5">
-        <v>55900000000</v>
+        <v>4.5962399999999999E-5</v>
       </c>
       <c r="I6" s="4">
         <v>1</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>314</v>
+        <v>105</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="L6" s="4">
-        <v>24103160</v>
+        <v>106991364</v>
       </c>
       <c r="M6" s="4">
-        <v>24103255</v>
-      </c>
-      <c r="N6" s="17" t="s">
-        <v>541</v>
+        <v>106992001</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>534</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>141</v>
+        <v>239</v>
       </c>
       <c r="E7" s="4">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H7" s="5">
-        <v>70400000000</v>
+        <v>5.5895530000000003E-5</v>
       </c>
       <c r="I7" s="4">
         <v>1</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="L7" s="4">
-        <v>43754046</v>
+        <v>24103160</v>
       </c>
       <c r="M7" s="4">
-        <v>43754121</v>
-      </c>
-      <c r="N7" s="18" t="s">
-        <v>538</v>
+        <v>24103255</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>534</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>27</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="E8" s="4">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="H8" s="5">
-        <v>715000000</v>
+        <v>7.0364649999999997E-5</v>
       </c>
       <c r="I8" s="4">
         <v>1</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>147</v>
+        <v>328</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="L8" s="4">
-        <v>26840685</v>
+        <v>43754046</v>
       </c>
       <c r="M8" s="4">
-        <v>26842647</v>
-      </c>
-      <c r="N8" s="17" t="s">
-        <v>541</v>
+        <v>43754121</v>
+      </c>
+      <c r="N8" s="20" t="s">
+        <v>601</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>27</v>
@@ -6472,140 +6484,140 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E9" s="4">
-        <v>353</v>
+        <v>39</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H9" s="5">
-        <v>727000000</v>
+        <v>7.1452900000000002E-5</v>
       </c>
       <c r="I9" s="4">
         <v>1</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="L9" s="4">
-        <v>54960422</v>
+        <v>26840685</v>
       </c>
       <c r="M9" s="4">
-        <v>54962915</v>
-      </c>
-      <c r="N9" s="17" t="s">
-        <v>541</v>
+        <v>26842647</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>534</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>340</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E10" s="4">
-        <v>2009</v>
+        <v>353</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="H10" s="5">
-        <v>76700000000</v>
+        <v>7.2700000000000005E-5</v>
       </c>
       <c r="I10" s="4">
         <v>1</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="L10" s="4">
-        <v>73560014</v>
+        <v>54960422</v>
       </c>
       <c r="M10" s="4">
-        <v>73561048</v>
-      </c>
-      <c r="N10" s="17" t="s">
-        <v>541</v>
+        <v>54962915</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>534</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>27</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E11" s="4">
-        <v>1181</v>
+        <v>2009</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H11" s="5">
-        <v>79700000000</v>
+        <v>7.6699999999999994E-5</v>
       </c>
       <c r="I11" s="4">
         <v>1</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="L11" s="4">
-        <v>116505971</v>
+        <v>73560014</v>
       </c>
       <c r="M11" s="4">
-        <v>116508541</v>
-      </c>
-      <c r="N11" s="17" t="s">
-        <v>541</v>
+        <v>73561048</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>534</v>
       </c>
       <c r="O11" s="4" t="s">
         <v>27</v>
@@ -6613,328 +6625,328 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>349</v>
+        <v>152</v>
       </c>
       <c r="E12" s="4">
-        <v>3</v>
+        <v>1181</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H12" s="5">
-        <v>80200000000</v>
+        <v>7.9699999999999999E-5</v>
       </c>
       <c r="I12" s="4">
         <v>1</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="L12" s="4">
-        <v>147412518</v>
+        <v>116505971</v>
       </c>
       <c r="M12" s="4">
-        <v>147412681</v>
-      </c>
-      <c r="N12" s="17" t="s">
-        <v>541</v>
+        <v>116508541</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>534</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>354</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>146</v>
+        <v>348</v>
       </c>
       <c r="E13" s="4">
-        <v>297</v>
+        <v>3</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="H13" s="5">
-        <v>93600000000</v>
+        <v>8.0199999999999998E-5</v>
       </c>
       <c r="I13" s="4">
         <v>1</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>357</v>
+        <v>105</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>358</v>
+        <v>91</v>
       </c>
       <c r="L13" s="4">
-        <v>2042327</v>
+        <v>147412518</v>
       </c>
       <c r="M13" s="4">
-        <v>2042484</v>
-      </c>
-      <c r="N13" s="17" t="s">
-        <v>541</v>
+        <v>147412681</v>
+      </c>
+      <c r="N13" s="16" t="s">
+        <v>534</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>27</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="E14" s="4">
-        <v>38</v>
+        <v>297</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="H14" s="5">
-        <v>95300000000</v>
+        <v>9.3599999999999998E-5</v>
       </c>
       <c r="I14" s="4">
         <v>1</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>133</v>
+        <v>357</v>
       </c>
       <c r="L14" s="4">
-        <v>22591629</v>
+        <v>2042327</v>
       </c>
       <c r="M14" s="4">
-        <v>22591781</v>
-      </c>
-      <c r="N14" s="17" t="s">
-        <v>541</v>
+        <v>2042484</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>534</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>366</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>153</v>
+        <v>239</v>
       </c>
       <c r="E15" s="4">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="H15" s="5">
-        <v>97400000000</v>
+        <v>9.5299999999999999E-5</v>
       </c>
       <c r="I15" s="4">
         <v>1</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>129</v>
+        <v>362</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="L15" s="4">
-        <v>17120288</v>
+        <v>22591629</v>
       </c>
       <c r="M15" s="4">
-        <v>17122642</v>
-      </c>
-      <c r="N15" s="17" t="s">
-        <v>541</v>
+        <v>22591781</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>534</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>27</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>269</v>
+        <v>152</v>
       </c>
       <c r="E16" s="4">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="H16" s="5">
-        <v>1020000000000</v>
+        <v>9.7399999999999996E-5</v>
       </c>
       <c r="I16" s="4">
         <v>1</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>329</v>
+        <v>129</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="L16" s="4">
-        <v>21994139</v>
+        <v>17120288</v>
       </c>
       <c r="M16" s="4">
-        <v>21994411</v>
+        <v>17122642</v>
       </c>
       <c r="N16" s="16" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>375</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>153</v>
+        <v>268</v>
       </c>
       <c r="E17" s="4">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H17" s="5">
-        <v>1110000000000</v>
+        <v>1.02E-4</v>
       </c>
       <c r="I17" s="4">
         <v>1</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="L17" s="4">
-        <v>100586181</v>
+        <v>21994139</v>
       </c>
       <c r="M17" s="4">
-        <v>100586741</v>
-      </c>
-      <c r="N17" s="17" t="s">
-        <v>541</v>
+        <v>21994411</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>532</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>27</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0</v>
+        <v>129</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>375</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="H18" s="5">
-        <v>1340000000000</v>
+        <v>1.11E-4</v>
       </c>
       <c r="I18" s="4">
         <v>1</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>88</v>
+        <v>362</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>358</v>
+        <v>135</v>
       </c>
       <c r="L18" s="4">
-        <v>53557874</v>
+        <v>100586181</v>
       </c>
       <c r="M18" s="4">
-        <v>53558217</v>
+        <v>100586741</v>
       </c>
       <c r="N18" s="16" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>27</v>
@@ -6942,46 +6954,46 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="E19" s="4">
-        <v>55</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>383</v>
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="H19" s="5">
-        <v>1360000000000</v>
+        <v>1.34E-4</v>
       </c>
       <c r="I19" s="4">
         <v>1</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>385</v>
+        <v>88</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>71</v>
+        <v>357</v>
       </c>
       <c r="L19" s="4">
-        <v>42157104</v>
+        <v>53557874</v>
       </c>
       <c r="M19" s="4">
-        <v>42160826</v>
-      </c>
-      <c r="N19" s="17" t="s">
-        <v>541</v>
+        <v>53558217</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>533</v>
       </c>
       <c r="O19" s="4" t="s">
         <v>27</v>
@@ -6989,46 +7001,46 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="E20" s="4">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="H20" s="5">
-        <v>1390000000000</v>
+        <v>1.36E-4</v>
       </c>
       <c r="I20" s="4">
         <v>1</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="L20" s="4">
-        <v>216013233</v>
+        <v>42157104</v>
       </c>
       <c r="M20" s="4">
-        <v>216013551</v>
-      </c>
-      <c r="N20" s="17" t="s">
-        <v>587</v>
+        <v>42160826</v>
+      </c>
+      <c r="N20" s="16" t="s">
+        <v>534</v>
       </c>
       <c r="O20" s="4" t="s">
         <v>27</v>
@@ -7036,46 +7048,46 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="E21" s="4">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="H21" s="5">
-        <v>1440000000000</v>
+        <v>1.3899999999999999E-4</v>
       </c>
       <c r="I21" s="4">
         <v>1</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>136</v>
+        <v>389</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>395</v>
+        <v>33</v>
       </c>
       <c r="L21" s="4">
-        <v>38147961</v>
+        <v>216013233</v>
       </c>
       <c r="M21" s="4">
-        <v>38148089</v>
-      </c>
-      <c r="N21" s="17" t="s">
-        <v>541</v>
+        <v>216013551</v>
+      </c>
+      <c r="N21" s="16" t="s">
+        <v>579</v>
       </c>
       <c r="O21" s="4" t="s">
         <v>27</v>
@@ -7091,35 +7103,35 @@
   <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.83203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" style="28" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="53" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.83203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.33203125" style="25" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -7128,37 +7140,37 @@
         <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="M1" s="24" t="s">
         <v>403</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="N1" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="O1" s="24" t="s">
         <v>405</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="P1" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="L1" s="25" t="s">
-        <v>407</v>
-      </c>
-      <c r="M1" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="N1" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="O1" s="25" t="s">
-        <v>410</v>
-      </c>
-      <c r="P1" s="25" t="s">
-        <v>411</v>
-      </c>
       <c r="Q1" s="2" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>9</v>
@@ -7167,13 +7179,13 @@
         <v>10</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>12</v>
@@ -7184,13 +7196,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C2" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D2" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E2" s="1">
         <v>8.0059000000000002E-8</v>
@@ -7199,13 +7211,13 @@
         <v>8.3195000000000005E-2</v>
       </c>
       <c r="G2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="H2" t="s">
-        <v>417</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>543</v>
+        <v>412</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>536</v>
       </c>
       <c r="J2">
         <v>1124</v>
@@ -7213,19 +7225,19 @@
       <c r="K2">
         <v>3697</v>
       </c>
-      <c r="L2" s="26" t="s">
-        <v>418</v>
-      </c>
-      <c r="M2" s="26" t="s">
-        <v>419</v>
-      </c>
-      <c r="N2" s="28">
+      <c r="L2" s="25" t="s">
+        <v>413</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="N2" s="27">
         <v>2572</v>
       </c>
-      <c r="O2" s="26" t="s">
-        <v>420</v>
-      </c>
-      <c r="P2" s="26">
+      <c r="O2" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="P2" s="25">
         <v>1</v>
       </c>
       <c r="Q2" t="s">
@@ -7241,10 +7253,10 @@
         <v>24</v>
       </c>
       <c r="U2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="V2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="W2" t="s">
         <v>27</v>
@@ -7255,13 +7267,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D3" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E3" s="1">
         <v>2.2949E-7</v>
@@ -7270,13 +7282,13 @@
         <v>0.23848</v>
       </c>
       <c r="G3" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="H3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -7284,20 +7296,20 @@
       <c r="K3">
         <v>15</v>
       </c>
-      <c r="L3" s="26" t="s">
-        <v>424</v>
-      </c>
-      <c r="M3" s="26" t="s">
-        <v>425</v>
-      </c>
-      <c r="N3" s="28">
+      <c r="L3" s="25" t="s">
+        <v>419</v>
+      </c>
+      <c r="M3" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="N3" s="27">
         <v>14</v>
       </c>
-      <c r="O3" s="26" t="s">
-        <v>426</v>
-      </c>
-      <c r="P3" s="26" t="s">
-        <v>427</v>
+      <c r="O3" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>422</v>
       </c>
       <c r="Q3" t="s">
         <v>40</v>
@@ -7312,10 +7324,10 @@
         <v>131</v>
       </c>
       <c r="U3" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="V3" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="W3" t="s">
         <v>27</v>
@@ -7326,13 +7338,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D4" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E4" s="1">
         <v>2.4942000000000002E-6</v>
@@ -7341,13 +7353,13 @@
         <v>2.5918999999999999</v>
       </c>
       <c r="G4" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="H4" t="s">
-        <v>417</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>588</v>
+        <v>412</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>600</v>
       </c>
       <c r="J4">
         <v>309</v>
@@ -7355,19 +7367,19 @@
       <c r="K4">
         <v>1026</v>
       </c>
-      <c r="L4" s="26" t="s">
-        <v>429</v>
-      </c>
-      <c r="M4" s="26" t="s">
-        <v>430</v>
-      </c>
-      <c r="N4" s="28">
+      <c r="L4" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>425</v>
+      </c>
+      <c r="N4" s="27">
         <v>0</v>
       </c>
-      <c r="O4" s="26">
+      <c r="O4" s="25">
         <v>0</v>
       </c>
-      <c r="P4" s="26">
+      <c r="P4" s="25">
         <v>0</v>
       </c>
       <c r="Q4" t="s">
@@ -7383,10 +7395,10 @@
         <v>117332</v>
       </c>
       <c r="U4" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="V4" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="W4" t="s">
         <v>27</v>
@@ -7397,13 +7409,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C5" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D5" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E5" s="1">
         <v>2.6039999999999998E-7</v>
@@ -7412,13 +7424,13 @@
         <v>0.27060000000000001</v>
       </c>
       <c r="G5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H5" t="s">
-        <v>433</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>588</v>
+        <v>428</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>539</v>
       </c>
       <c r="J5">
         <v>1601</v>
@@ -7426,19 +7438,19 @@
       <c r="K5">
         <v>2843</v>
       </c>
-      <c r="L5" s="26" t="s">
-        <v>434</v>
-      </c>
-      <c r="M5" s="26" t="s">
-        <v>435</v>
-      </c>
-      <c r="N5" s="28">
+      <c r="L5" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="M5" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="N5" s="27">
         <v>9</v>
       </c>
-      <c r="O5" s="26">
+      <c r="O5" s="25">
         <v>0</v>
       </c>
-      <c r="P5" s="26">
+      <c r="P5" s="25">
         <v>0</v>
       </c>
       <c r="Q5" t="s">
@@ -7454,10 +7466,10 @@
         <v>2302</v>
       </c>
       <c r="U5" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="V5" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="W5" t="s">
         <v>27</v>
@@ -7468,13 +7480,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C6" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D6" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E6" s="1">
         <v>3.7129000000000001E-6</v>
@@ -7483,13 +7495,13 @@
         <v>3.8582999999999998</v>
       </c>
       <c r="G6" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H6" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="J6">
         <v>993</v>
@@ -7497,20 +7509,20 @@
       <c r="K6">
         <v>1560</v>
       </c>
-      <c r="L6" s="26" t="s">
-        <v>440</v>
-      </c>
-      <c r="M6" s="26">
+      <c r="L6" s="25" t="s">
+        <v>435</v>
+      </c>
+      <c r="M6" s="25">
         <v>4286</v>
       </c>
-      <c r="N6" s="28">
+      <c r="N6" s="27">
         <v>9</v>
       </c>
-      <c r="O6" s="26" t="s">
-        <v>441</v>
-      </c>
-      <c r="P6" s="26" t="s">
-        <v>441</v>
+      <c r="O6" s="25" t="s">
+        <v>436</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>436</v>
       </c>
       <c r="Q6" t="s">
         <v>135</v>
@@ -7525,10 +7537,10 @@
         <v>1552</v>
       </c>
       <c r="U6" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="V6" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="W6" t="s">
         <v>27</v>
@@ -7539,13 +7551,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E7" s="1">
         <v>4.8636000000000003E-6</v>
@@ -7554,13 +7566,13 @@
         <v>5.0541</v>
       </c>
       <c r="G7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="H7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="J7">
         <v>272</v>
@@ -7568,23 +7580,23 @@
       <c r="K7">
         <v>1939</v>
       </c>
-      <c r="L7" s="26" t="s">
-        <v>445</v>
-      </c>
-      <c r="M7" s="26" t="s">
-        <v>446</v>
-      </c>
-      <c r="N7" s="28">
+      <c r="L7" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>441</v>
+      </c>
+      <c r="N7" s="27">
         <v>60</v>
       </c>
-      <c r="O7" s="26" t="s">
-        <v>447</v>
-      </c>
-      <c r="P7" s="26" t="s">
-        <v>447</v>
+      <c r="O7" s="25" t="s">
+        <v>442</v>
+      </c>
+      <c r="P7" s="25" t="s">
+        <v>442</v>
       </c>
       <c r="Q7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="R7">
         <v>20025768</v>
@@ -7596,13 +7608,13 @@
         <v>6740</v>
       </c>
       <c r="U7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="V7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="W7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -7610,13 +7622,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C8" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D8" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E8" s="1">
         <v>5.0566E-6</v>
@@ -7625,13 +7637,13 @@
         <v>2.6273</v>
       </c>
       <c r="G8" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="H8" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="J8">
         <v>19332</v>
@@ -7639,19 +7651,19 @@
       <c r="K8">
         <v>22512</v>
       </c>
-      <c r="L8" s="26" t="s">
-        <v>452</v>
-      </c>
-      <c r="M8" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="N8" s="28">
+      <c r="L8" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="M8" s="25" t="s">
+        <v>448</v>
+      </c>
+      <c r="N8" s="27">
         <v>10</v>
       </c>
-      <c r="O8" s="26">
+      <c r="O8" s="25">
         <v>0</v>
       </c>
-      <c r="P8" s="26">
+      <c r="P8" s="25">
         <v>0</v>
       </c>
       <c r="Q8" t="s">
@@ -7667,13 +7679,13 @@
         <v>1174</v>
       </c>
       <c r="U8" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="V8" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="W8" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -7681,13 +7693,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C9" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D9" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E9" s="1">
         <v>6.8012000000000002E-6</v>
@@ -7696,13 +7708,13 @@
         <v>7.0675999999999997</v>
       </c>
       <c r="G9" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="H9" t="s">
-        <v>458</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>545</v>
+        <v>453</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>538</v>
       </c>
       <c r="J9">
         <v>375</v>
@@ -7710,20 +7722,20 @@
       <c r="K9">
         <v>1025</v>
       </c>
-      <c r="L9" s="26" t="s">
-        <v>459</v>
-      </c>
-      <c r="M9" s="26" t="s">
-        <v>460</v>
-      </c>
-      <c r="N9" s="28">
+      <c r="L9" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="M9" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="N9" s="27">
         <v>350</v>
       </c>
-      <c r="O9" s="26" t="s">
-        <v>461</v>
-      </c>
-      <c r="P9" s="26" t="s">
-        <v>462</v>
+      <c r="O9" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="P9" s="25" t="s">
+        <v>457</v>
       </c>
       <c r="Q9" t="s">
         <v>127</v>
@@ -7738,13 +7750,13 @@
         <v>327</v>
       </c>
       <c r="U9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="V9" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="W9" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -7752,28 +7764,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C10" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D10" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E10" s="1">
         <v>1.0107E-5</v>
       </c>
       <c r="F10" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G10" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="H10" t="s">
-        <v>467</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>546</v>
+        <v>462</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>539</v>
       </c>
       <c r="J10">
         <v>523</v>
@@ -7781,20 +7793,20 @@
       <c r="K10">
         <v>6716</v>
       </c>
-      <c r="L10" s="26" t="s">
-        <v>468</v>
-      </c>
-      <c r="M10" s="26" t="s">
-        <v>469</v>
-      </c>
-      <c r="N10" s="28">
+      <c r="L10" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="N10" s="27">
         <v>22</v>
       </c>
-      <c r="O10" s="26">
+      <c r="O10" s="25">
         <v>0</v>
       </c>
-      <c r="P10" s="26" t="s">
-        <v>441</v>
+      <c r="P10" s="25" t="s">
+        <v>436</v>
       </c>
       <c r="Q10" t="s">
         <v>86</v>
@@ -7809,13 +7821,13 @@
         <v>3088</v>
       </c>
       <c r="U10" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="V10" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="W10" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -7823,13 +7835,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C11" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="D11" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E11" s="1">
         <v>1.1734E-5</v>
@@ -7841,10 +7853,10 @@
         <v>128</v>
       </c>
       <c r="H11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="J11">
         <v>3125</v>
@@ -7852,20 +7864,20 @@
       <c r="K11">
         <v>5373</v>
       </c>
-      <c r="L11" s="26" t="s">
-        <v>472</v>
-      </c>
-      <c r="M11" s="26" t="s">
-        <v>473</v>
-      </c>
-      <c r="N11" s="28">
+      <c r="L11" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="M11" s="25" t="s">
+        <v>468</v>
+      </c>
+      <c r="N11" s="27">
         <v>32</v>
       </c>
-      <c r="O11" s="26" t="s">
-        <v>441</v>
-      </c>
-      <c r="P11" s="26" t="s">
-        <v>441</v>
+      <c r="O11" s="25" t="s">
+        <v>436</v>
+      </c>
+      <c r="P11" s="25" t="s">
+        <v>436</v>
       </c>
       <c r="Q11" t="s">
         <v>135</v>
@@ -7880,13 +7892,13 @@
         <v>325</v>
       </c>
       <c r="U11" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="V11" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="W11" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -7894,13 +7906,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C12" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="D12" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E12" s="1">
         <v>1.5675000000000002E-5</v>
@@ -7912,10 +7924,10 @@
         <v>132</v>
       </c>
       <c r="H12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="J12">
         <v>2752</v>
@@ -7923,20 +7935,20 @@
       <c r="K12">
         <v>5088</v>
       </c>
-      <c r="L12" s="26" t="s">
-        <v>475</v>
-      </c>
-      <c r="M12" s="26" t="s">
-        <v>476</v>
-      </c>
-      <c r="N12" s="28">
+      <c r="L12" s="25" t="s">
+        <v>470</v>
+      </c>
+      <c r="M12" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="N12" s="27">
         <v>16</v>
       </c>
-      <c r="O12" s="26">
+      <c r="O12" s="25">
         <v>0</v>
       </c>
-      <c r="P12" s="26" t="s">
-        <v>441</v>
+      <c r="P12" s="25" t="s">
+        <v>436</v>
       </c>
       <c r="Q12" t="s">
         <v>135</v>
@@ -7951,13 +7963,13 @@
         <v>3303</v>
       </c>
       <c r="U12" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="V12" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="W12" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -7965,28 +7977,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C13" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D13" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E13" s="1">
         <v>1.7676000000000002E-5</v>
       </c>
       <c r="F13" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="G13" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="H13" t="s">
-        <v>480</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>589</v>
+        <v>475</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>580</v>
       </c>
       <c r="J13">
         <v>5487</v>
@@ -7994,19 +8006,19 @@
       <c r="K13">
         <v>41273</v>
       </c>
-      <c r="L13" s="26">
+      <c r="L13" s="25">
         <v>275</v>
       </c>
-      <c r="M13" s="26" t="s">
-        <v>481</v>
-      </c>
-      <c r="N13" s="28">
+      <c r="M13" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="N13" s="27">
         <v>31936</v>
       </c>
-      <c r="O13" s="26" t="s">
-        <v>482</v>
-      </c>
-      <c r="P13" s="26">
+      <c r="O13" s="25" t="s">
+        <v>477</v>
+      </c>
+      <c r="P13" s="25">
         <v>1</v>
       </c>
       <c r="Q13" t="s">
@@ -8022,10 +8034,10 @@
         <v>456</v>
       </c>
       <c r="U13" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="V13" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="W13" t="s">
         <v>27</v>
@@ -8036,28 +8048,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C14" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D14" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E14" s="1">
         <v>2.0168000000000001E-5</v>
       </c>
       <c r="F14" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="G14" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="H14" t="s">
         <v>130</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="J14">
         <v>279</v>
@@ -8065,20 +8077,20 @@
       <c r="K14">
         <v>471</v>
       </c>
-      <c r="L14" s="26" t="s">
-        <v>487</v>
-      </c>
-      <c r="M14" s="26" t="s">
-        <v>488</v>
-      </c>
-      <c r="N14" s="28">
+      <c r="L14" s="25" t="s">
+        <v>482</v>
+      </c>
+      <c r="M14" s="25" t="s">
+        <v>483</v>
+      </c>
+      <c r="N14" s="27">
         <v>6</v>
       </c>
-      <c r="O14" s="26" t="s">
-        <v>441</v>
-      </c>
-      <c r="P14" s="26" t="s">
-        <v>441</v>
+      <c r="O14" s="25" t="s">
+        <v>436</v>
+      </c>
+      <c r="P14" s="25" t="s">
+        <v>436</v>
       </c>
       <c r="Q14" t="s">
         <v>97</v>
@@ -8093,13 +8105,13 @@
         <v>496</v>
       </c>
       <c r="U14" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="V14" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="W14" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -8107,28 +8119,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C15" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="D15" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E15" s="1">
         <v>3.4873999999999998E-5</v>
       </c>
       <c r="F15" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G15" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="H15" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="J15">
         <v>2227</v>
@@ -8136,20 +8148,20 @@
       <c r="K15">
         <v>2536</v>
       </c>
-      <c r="L15" s="26" t="s">
-        <v>495</v>
-      </c>
-      <c r="M15" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="N15" s="28">
+      <c r="L15" s="25" t="s">
+        <v>490</v>
+      </c>
+      <c r="M15" s="25" t="s">
+        <v>491</v>
+      </c>
+      <c r="N15" s="27">
         <v>2</v>
       </c>
-      <c r="O15" s="26">
+      <c r="O15" s="25">
         <v>0</v>
       </c>
-      <c r="P15" s="26" t="s">
-        <v>441</v>
+      <c r="P15" s="25" t="s">
+        <v>436</v>
       </c>
       <c r="Q15" t="s">
         <v>127</v>
@@ -8164,13 +8176,13 @@
         <v>175</v>
       </c>
       <c r="U15" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="V15" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="W15" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -8178,28 +8190,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C16" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="D16" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E16" s="1">
         <v>4.3217999999999999E-5</v>
       </c>
       <c r="F16" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="G16" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="H16" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="J16">
         <v>12159</v>
@@ -8207,20 +8219,20 @@
       <c r="K16">
         <v>13275</v>
       </c>
-      <c r="L16" s="26">
+      <c r="L16" s="25">
         <v>10100</v>
       </c>
-      <c r="M16" s="26" t="s">
-        <v>502</v>
-      </c>
-      <c r="N16" s="28">
+      <c r="M16" s="25" t="s">
+        <v>497</v>
+      </c>
+      <c r="N16" s="27">
         <v>172</v>
       </c>
-      <c r="O16" s="26" t="s">
-        <v>441</v>
-      </c>
-      <c r="P16" s="26" t="s">
-        <v>441</v>
+      <c r="O16" s="25" t="s">
+        <v>436</v>
+      </c>
+      <c r="P16" s="25" t="s">
+        <v>436</v>
       </c>
       <c r="Q16" t="s">
         <v>33</v>
@@ -8235,10 +8247,10 @@
         <v>364</v>
       </c>
       <c r="U16" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="V16" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="W16" t="s">
         <v>27</v>
@@ -8249,28 +8261,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C17" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D17" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E17" s="1">
         <v>4.7806000000000003E-5</v>
       </c>
       <c r="F17" t="s">
+        <v>494</v>
+      </c>
+      <c r="G17" t="s">
+        <v>498</v>
+      </c>
+      <c r="H17" t="s">
         <v>499</v>
       </c>
-      <c r="G17" t="s">
-        <v>503</v>
-      </c>
-      <c r="H17" t="s">
-        <v>504</v>
-      </c>
       <c r="I17" s="6" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="J17">
         <v>2956</v>
@@ -8278,20 +8290,20 @@
       <c r="K17">
         <v>3484</v>
       </c>
-      <c r="L17" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="M17" s="26" t="s">
-        <v>506</v>
-      </c>
-      <c r="N17" s="28">
+      <c r="L17" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="M17" s="25" t="s">
+        <v>501</v>
+      </c>
+      <c r="N17" s="27">
         <v>4</v>
       </c>
-      <c r="O17" s="26">
+      <c r="O17" s="25">
         <v>0</v>
       </c>
-      <c r="P17" s="26" t="s">
-        <v>441</v>
+      <c r="P17" s="25" t="s">
+        <v>436</v>
       </c>
       <c r="Q17" t="s">
         <v>86</v>
@@ -8306,13 +8318,13 @@
         <v>1493</v>
       </c>
       <c r="U17" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="V17" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="W17" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -8320,28 +8332,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C18" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D18" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E18" s="1">
         <v>4.8872000000000002E-5</v>
       </c>
       <c r="F18" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G18" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="H18" t="s">
-        <v>510</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>592</v>
+        <v>505</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>583</v>
       </c>
       <c r="J18">
         <v>426</v>
@@ -8349,23 +8361,23 @@
       <c r="K18">
         <v>1298</v>
       </c>
-      <c r="L18" s="26" t="s">
-        <v>511</v>
-      </c>
-      <c r="M18" s="26" t="s">
-        <v>512</v>
-      </c>
-      <c r="N18" s="28">
+      <c r="L18" s="25" t="s">
+        <v>506</v>
+      </c>
+      <c r="M18" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="N18" s="27">
         <v>340</v>
       </c>
-      <c r="O18" s="26" t="s">
-        <v>462</v>
-      </c>
-      <c r="P18" s="26" t="s">
-        <v>513</v>
+      <c r="O18" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="P18" s="25" t="s">
+        <v>508</v>
       </c>
       <c r="Q18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R18">
         <v>2469230</v>
@@ -8377,10 +8389,10 @@
         <v>21107</v>
       </c>
       <c r="U18" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="V18" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="W18" t="s">
         <v>27</v>
@@ -8391,28 +8403,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C19" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="D19" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E19" s="1">
         <v>7.2024E-5</v>
       </c>
       <c r="F19" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G19" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="H19" t="s">
-        <v>150</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>593</v>
+        <v>149</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>584</v>
       </c>
       <c r="J19">
         <v>483</v>
@@ -8420,20 +8432,20 @@
       <c r="K19">
         <v>886</v>
       </c>
-      <c r="L19" s="26" t="s">
-        <v>516</v>
-      </c>
-      <c r="M19" s="26" t="s">
-        <v>517</v>
-      </c>
-      <c r="N19" s="28">
+      <c r="L19" s="25" t="s">
+        <v>511</v>
+      </c>
+      <c r="M19" s="25" t="s">
+        <v>512</v>
+      </c>
+      <c r="N19" s="27">
         <v>403</v>
       </c>
-      <c r="O19" s="26" t="s">
-        <v>513</v>
-      </c>
-      <c r="P19" s="26" t="s">
-        <v>151</v>
+      <c r="O19" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="P19" s="25" t="s">
+        <v>150</v>
       </c>
       <c r="Q19" t="s">
         <v>115</v>
@@ -8448,13 +8460,13 @@
         <v>1638</v>
       </c>
       <c r="U19" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="V19" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="W19" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -8462,28 +8474,28 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C20" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="D20" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E20" s="1">
         <v>7.6533999999999996E-5</v>
       </c>
       <c r="F20" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="G20" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="H20" t="s">
-        <v>461</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>594</v>
+        <v>456</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>585</v>
       </c>
       <c r="J20">
         <v>782</v>
@@ -8491,19 +8503,19 @@
       <c r="K20">
         <v>2304</v>
       </c>
-      <c r="L20" s="26">
+      <c r="L20" s="25">
         <v>32</v>
       </c>
-      <c r="M20" s="26" t="s">
-        <v>522</v>
-      </c>
-      <c r="N20" s="28">
+      <c r="M20" s="25" t="s">
+        <v>517</v>
+      </c>
+      <c r="N20" s="27">
         <v>1522</v>
       </c>
-      <c r="O20" s="26" t="s">
-        <v>523</v>
-      </c>
-      <c r="P20" s="26">
+      <c r="O20" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="P20" s="25">
         <v>1</v>
       </c>
       <c r="Q20" t="s">
@@ -8519,10 +8531,10 @@
         <v>25</v>
       </c>
       <c r="U20" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="V20" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="W20" t="s">
         <v>27</v>
@@ -8533,28 +8545,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C21" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="D21" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E21" s="1">
         <v>1.1332000000000001E-4</v>
       </c>
       <c r="F21" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="G21" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="H21" t="s">
-        <v>526</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>551</v>
+        <v>521</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>544</v>
       </c>
       <c r="J21">
         <v>131</v>
@@ -8562,20 +8574,20 @@
       <c r="K21">
         <v>732</v>
       </c>
-      <c r="L21" s="26" t="s">
-        <v>527</v>
-      </c>
-      <c r="M21" s="26" t="s">
-        <v>528</v>
-      </c>
-      <c r="N21" s="28">
+      <c r="L21" s="25" t="s">
+        <v>522</v>
+      </c>
+      <c r="M21" s="25" t="s">
+        <v>523</v>
+      </c>
+      <c r="N21" s="27">
         <v>59</v>
       </c>
-      <c r="O21" s="26" t="s">
-        <v>467</v>
-      </c>
-      <c r="P21" s="26" t="s">
-        <v>467</v>
+      <c r="O21" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="P21" s="25" t="s">
+        <v>462</v>
       </c>
       <c r="Q21" t="s">
         <v>121</v>
@@ -8590,13 +8602,13 @@
         <v>557</v>
       </c>
       <c r="U21" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="V21" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="W21" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>

--- a/FMP_supplementary_tableS3.xlsx
+++ b/FMP_supplementary_tableS3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lbrussel/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DC607D-B6A2-3344-A3CD-FF9B7D0D86A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BD0EC7-61E1-114D-B445-EF68B6908CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table S3A gene untreated" sheetId="1" r:id="rId1"/>
@@ -1622,12 +1622,6 @@
     <t>Gene expression zscore -3.7, no aberrant splicing detected</t>
   </si>
   <si>
-    <t xml:space="preserve">Aberrant splicing FRASER rank 972 </t>
-  </si>
-  <si>
-    <t>Aberrant splicing - FRASER rank 1071</t>
-  </si>
-  <si>
     <t>FP, no (aberrant) splicing</t>
   </si>
   <si>
@@ -1793,12 +1787,6 @@
     <t xml:space="preserve"> TP: exon skip - FRASER Rank 706</t>
   </si>
   <si>
-    <t>TP: Positive control sample</t>
-  </si>
-  <si>
-    <t>TP: Aberrant splicing, naturally ocurring</t>
-  </si>
-  <si>
     <t>FP: Visually lower coverage, no splicing event detected</t>
   </si>
   <si>
@@ -1829,7 +1817,19 @@
     <t>one or two exon skips, depends on transcript-1 naturally ocurring</t>
   </si>
   <si>
-    <t>one or two exon skips, FRASER rank 3, depends on transcript-1 naturally ocurring</t>
+    <t>TP: one or two exon skips, FRASER rank 3, depends on transcript-1 naturally ocurring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP: Aberrant splicing FRASER rank 972 </t>
+  </si>
+  <si>
+    <t>TP: Aberrant splicing - FRASER rank 1071</t>
+  </si>
+  <si>
+    <t>TP: Positive control sample, FRASER rank 10</t>
+  </si>
+  <si>
+    <t>TP: Aberrant splicing, FRASER rank 23, naturally ocurring</t>
   </si>
 </sst>
 </file>
@@ -2821,7 +2821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -2917,7 +2917,7 @@
         <v>38992546</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="N2" t="s">
         <v>154</v>
@@ -2961,7 +2961,7 @@
         <v>42913299</v>
       </c>
       <c r="M3" s="22" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="N3" t="s">
         <v>27</v>
@@ -3005,7 +3005,7 @@
         <v>110205042</v>
       </c>
       <c r="M4" s="22" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="N4" t="s">
         <v>35</v>
@@ -3049,7 +3049,7 @@
         <v>48470260</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="N5" t="s">
         <v>27</v>
@@ -3093,7 +3093,7 @@
         <v>22869362</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="N6" t="s">
         <v>48</v>
@@ -3137,7 +3137,7 @@
         <v>48545109</v>
       </c>
       <c r="M7" s="23" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="N7" t="s">
         <v>27</v>
@@ -3181,7 +3181,7 @@
         <v>134713031</v>
       </c>
       <c r="M8" s="23" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="N8" t="s">
         <v>60</v>
@@ -3225,7 +3225,7 @@
         <v>19431696</v>
       </c>
       <c r="M9" s="22" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="N9" t="s">
         <v>66</v>
@@ -3269,7 +3269,7 @@
         <v>27756295</v>
       </c>
       <c r="M10" s="22" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="N10" t="s">
         <v>73</v>
@@ -3313,7 +3313,7 @@
         <v>19436075</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="N11" t="s">
         <v>27</v>
@@ -3357,7 +3357,7 @@
         <v>22980368</v>
       </c>
       <c r="M12" s="22" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="N12" t="s">
         <v>27</v>
@@ -3401,7 +3401,7 @@
         <v>127407855</v>
       </c>
       <c r="M13" s="22" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="N13" t="s">
         <v>27</v>
@@ -3445,7 +3445,7 @@
         <v>28319771</v>
       </c>
       <c r="M14" s="22" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="N14" t="s">
         <v>27</v>
@@ -3489,7 +3489,7 @@
         <v>74019288</v>
       </c>
       <c r="M15" s="22" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="N15" t="s">
         <v>27</v>
@@ -3533,7 +3533,7 @@
         <v>142578733</v>
       </c>
       <c r="M16" s="22" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="N16" t="s">
         <v>103</v>
@@ -3577,7 +3577,7 @@
         <v>43596038</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="N17" t="s">
         <v>27</v>
@@ -3665,7 +3665,7 @@
         <v>49867555</v>
       </c>
       <c r="M19" s="22" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="N19" t="s">
         <v>117</v>
@@ -3709,7 +3709,7 @@
         <v>56684196</v>
       </c>
       <c r="M20" s="22" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="N20" t="s">
         <v>27</v>
@@ -3753,7 +3753,7 @@
         <v>33264708</v>
       </c>
       <c r="M21" s="22" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="N21" t="s">
         <v>27</v>
@@ -4008,7 +4008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
@@ -4110,7 +4110,7 @@
         <v>47244924</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="O2" t="s">
         <v>27</v>
@@ -4157,7 +4157,7 @@
         <v>47247419</v>
       </c>
       <c r="N3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="O3" t="s">
         <v>27</v>
@@ -4204,7 +4204,7 @@
         <v>47245482</v>
       </c>
       <c r="N4" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="O4" t="s">
         <v>27</v>
@@ -4251,7 +4251,7 @@
         <v>47247221</v>
       </c>
       <c r="N5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="O5" t="s">
         <v>27</v>
@@ -4298,7 +4298,7 @@
         <v>47247699</v>
       </c>
       <c r="N6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="O6" t="s">
         <v>27</v>
@@ -4345,7 +4345,7 @@
         <v>38992804</v>
       </c>
       <c r="N7" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="O7" t="s">
         <v>177</v>
@@ -4392,7 +4392,7 @@
         <v>38989610</v>
       </c>
       <c r="N8" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="O8" t="s">
         <v>180</v>
@@ -4439,7 +4439,7 @@
         <v>42897047</v>
       </c>
       <c r="N9" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="O9" t="s">
         <v>27</v>
@@ -4486,7 +4486,7 @@
         <v>38991626</v>
       </c>
       <c r="N10" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="O10" t="s">
         <v>187</v>
@@ -4533,7 +4533,7 @@
         <v>42904276</v>
       </c>
       <c r="N11" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="O11" t="s">
         <v>27</v>
@@ -4580,7 +4580,7 @@
         <v>38986091</v>
       </c>
       <c r="N12" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="O12" t="s">
         <v>195</v>
@@ -4627,7 +4627,7 @@
         <v>56672809</v>
       </c>
       <c r="N13" s="13" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="O13" t="s">
         <v>27</v>
@@ -4674,7 +4674,7 @@
         <v>22860789</v>
       </c>
       <c r="N14" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="O14" t="s">
         <v>48</v>
@@ -4721,7 +4721,7 @@
         <v>48543747</v>
       </c>
       <c r="N15" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="O15" t="s">
         <v>27</v>
@@ -4768,7 +4768,7 @@
         <v>96379788</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O16" t="s">
         <v>27</v>
@@ -4815,7 +4815,7 @@
         <v>48577020</v>
       </c>
       <c r="N17" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="O17" t="s">
         <v>27</v>
@@ -4909,7 +4909,7 @@
         <v>22851870</v>
       </c>
       <c r="N19" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="O19" t="s">
         <v>48</v>
@@ -4956,7 +4956,7 @@
         <v>38986412</v>
       </c>
       <c r="N20" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="O20" t="s">
         <v>223</v>
@@ -5003,7 +5003,7 @@
         <v>38984231</v>
       </c>
       <c r="N21" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="O21" t="s">
         <v>229</v>
@@ -5127,7 +5127,7 @@
         <v>38992804</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>232</v>
@@ -5177,7 +5177,7 @@
         <v>27865798</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>238</v>
@@ -5227,7 +5227,7 @@
         <v>41055230</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>238</v>
@@ -5277,7 +5277,7 @@
         <v>26252075</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>238</v>
@@ -5327,7 +5327,7 @@
         <v>26045869</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>238</v>
@@ -5377,7 +5377,7 @@
         <v>27890826</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>238</v>
@@ -5477,7 +5477,7 @@
         <v>54456377</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>264</v>
@@ -5527,7 +5527,7 @@
         <v>27814777</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>238</v>
@@ -5577,7 +5577,7 @@
         <v>77196985</v>
       </c>
       <c r="O11" s="11" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>27</v>
@@ -5627,7 +5627,7 @@
         <v>138953990</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>27</v>
@@ -5677,7 +5677,7 @@
         <v>56672809</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>27</v>
@@ -5727,7 +5727,7 @@
         <v>27198442</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>283</v>
@@ -6027,7 +6027,7 @@
         <v>99062099</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>27</v>
@@ -6077,7 +6077,7 @@
         <v>152657542</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>238</v>
@@ -6093,7 +6093,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6158,13 +6158,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="E2" s="29">
         <v>0</v>
@@ -6173,13 +6173,13 @@
         <v>0</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="H2" s="31">
         <v>6.1094670000000005E-7</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="J2" s="30">
         <v>-4.7300000000000004</v>
@@ -6194,7 +6194,7 @@
         <v>123754762</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>27</v>
@@ -6241,7 +6241,7 @@
         <v>122070168</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>310</v>
@@ -6288,7 +6288,7 @@
         <v>96379788</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>27</v>
@@ -6335,7 +6335,7 @@
         <v>103550971</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>27</v>
@@ -6382,7 +6382,7 @@
         <v>106992001</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>320</v>
@@ -6429,7 +6429,7 @@
         <v>24103255</v>
       </c>
       <c r="N7" s="16" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>325</v>
@@ -6476,7 +6476,7 @@
         <v>43754121</v>
       </c>
       <c r="N8" s="20" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>27</v>
@@ -6523,7 +6523,7 @@
         <v>26842647</v>
       </c>
       <c r="N9" s="16" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="O9" s="4" t="s">
         <v>27</v>
@@ -6570,7 +6570,7 @@
         <v>54962915</v>
       </c>
       <c r="N10" s="16" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>339</v>
@@ -6617,7 +6617,7 @@
         <v>73561048</v>
       </c>
       <c r="N11" s="16" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="O11" s="4" t="s">
         <v>27</v>
@@ -6664,7 +6664,7 @@
         <v>116508541</v>
       </c>
       <c r="N12" s="16" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>27</v>
@@ -6711,7 +6711,7 @@
         <v>147412681</v>
       </c>
       <c r="N13" s="16" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="O13" s="4" t="s">
         <v>353</v>
@@ -6758,7 +6758,7 @@
         <v>2042484</v>
       </c>
       <c r="N14" s="16" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="O14" s="4" t="s">
         <v>27</v>
@@ -6805,7 +6805,7 @@
         <v>22591781</v>
       </c>
       <c r="N15" s="16" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="O15" s="4" t="s">
         <v>365</v>
@@ -6852,7 +6852,7 @@
         <v>17122642</v>
       </c>
       <c r="N16" s="16" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>27</v>
@@ -6899,7 +6899,7 @@
         <v>21994411</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>532</v>
+        <v>598</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>374</v>
@@ -6946,7 +6946,7 @@
         <v>100586741</v>
       </c>
       <c r="N18" s="16" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>27</v>
@@ -6993,7 +6993,7 @@
         <v>53558217</v>
       </c>
       <c r="N19" s="15" t="s">
-        <v>533</v>
+        <v>599</v>
       </c>
       <c r="O19" s="4" t="s">
         <v>27</v>
@@ -7040,7 +7040,7 @@
         <v>42160826</v>
       </c>
       <c r="N20" s="16" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="O20" s="4" t="s">
         <v>27</v>
@@ -7087,7 +7087,7 @@
         <v>216013551</v>
       </c>
       <c r="N21" s="16" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O21" s="4" t="s">
         <v>27</v>
@@ -7103,7 +7103,7 @@
   <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7146,7 +7146,7 @@
         <v>399</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>400</v>
@@ -7217,7 +7217,7 @@
         <v>412</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="J2">
         <v>1124</v>
@@ -7288,7 +7288,7 @@
         <v>144</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -7359,7 +7359,7 @@
         <v>412</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="J4">
         <v>309</v>
@@ -7430,7 +7430,7 @@
         <v>428</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J5">
         <v>1601</v>
@@ -7501,7 +7501,7 @@
         <v>434</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="J6">
         <v>993</v>
@@ -7572,7 +7572,7 @@
         <v>439</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J7">
         <v>272</v>
@@ -7643,7 +7643,7 @@
         <v>446</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="J8">
         <v>19332</v>
@@ -7714,7 +7714,7 @@
         <v>453</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J9">
         <v>375</v>
@@ -7785,7 +7785,7 @@
         <v>462</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J10">
         <v>523</v>
@@ -7856,7 +7856,7 @@
         <v>143</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="J11">
         <v>3125</v>
@@ -7927,7 +7927,7 @@
         <v>149</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J12">
         <v>2752</v>
@@ -7998,7 +7998,7 @@
         <v>475</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="J13">
         <v>5487</v>
@@ -8069,7 +8069,7 @@
         <v>130</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="J14">
         <v>279</v>
@@ -8140,7 +8140,7 @@
         <v>489</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="J15">
         <v>2227</v>
@@ -8211,7 +8211,7 @@
         <v>496</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="J16">
         <v>12159</v>
@@ -8282,7 +8282,7 @@
         <v>499</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J17">
         <v>2956</v>
@@ -8353,7 +8353,7 @@
         <v>505</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J18">
         <v>426</v>
@@ -8424,7 +8424,7 @@
         <v>149</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="J19">
         <v>483</v>
@@ -8495,7 +8495,7 @@
         <v>456</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="J20">
         <v>782</v>
@@ -8566,7 +8566,7 @@
         <v>521</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="J21">
         <v>131</v>

--- a/FMP_supplementary_tableS3.xlsx
+++ b/FMP_supplementary_tableS3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lbrussel/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BD0EC7-61E1-114D-B445-EF68B6908CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBBB010-C338-6D4D-977F-DB921F74E3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,20 @@
     <sheet name="Table S3D exon_ratio_filtered" sheetId="4" r:id="rId4"/>
     <sheet name="Table S3E FRASER_splicing" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2822,7 +2835,7 @@
   <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2890,7 +2903,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="1">
-        <v>3253100297.5804</v>
+        <v>3.2531002975804001E-6</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -2934,7 +2947,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>4007539421.9437699</v>
+        <v>4.00753942194377E-6</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -2978,7 +2991,7 @@
         <v>28</v>
       </c>
       <c r="D4" s="1">
-        <v>7510054974.7806501</v>
+        <v>7.51005497478065E-6</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
@@ -3022,7 +3035,7 @@
         <v>36</v>
       </c>
       <c r="D5" s="1">
-        <v>8516556358.2613697</v>
+        <v>8.5165563582613692E-6</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -3066,7 +3079,7 @@
         <v>42</v>
       </c>
       <c r="D6" s="1">
-        <v>109942037818.08</v>
+        <v>1.0994203781808001E-5</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -3110,7 +3123,7 @@
         <v>49</v>
       </c>
       <c r="D7" s="1">
-        <v>110972346141.59599</v>
+        <v>1.1097234614159599E-5</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -3154,7 +3167,7 @@
         <v>28</v>
       </c>
       <c r="D8" s="1">
-        <v>126231852553.276</v>
+        <v>1.2623185255327599E-5</v>
       </c>
       <c r="E8" t="s">
         <v>29</v>
@@ -3198,7 +3211,7 @@
         <v>61</v>
       </c>
       <c r="D9" s="1">
-        <v>19125053155.1828</v>
+        <v>1.9125053155182802E-6</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -3242,7 +3255,7 @@
         <v>67</v>
       </c>
       <c r="D10" s="1">
-        <v>27164215945.597301</v>
+        <v>2.7164215945597301E-6</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -3286,7 +3299,7 @@
         <v>61</v>
       </c>
       <c r="D11" s="1">
-        <v>292108068718.61298</v>
+        <v>2.9210806871861297E-5</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -3330,7 +3343,7 @@
         <v>42</v>
       </c>
       <c r="D12" s="1">
-        <v>296261271329.29498</v>
+        <v>2.9626127132929496E-5</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -3374,7 +3387,7 @@
         <v>83</v>
       </c>
       <c r="D13" s="1">
-        <v>298859435175.005</v>
+        <v>2.9885943517500501E-5</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -3418,7 +3431,7 @@
         <v>61</v>
       </c>
       <c r="D14" s="1">
-        <v>353188138507.89301</v>
+        <v>3.5318813850789301E-5</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3462,7 +3475,7 @@
         <v>93</v>
       </c>
       <c r="D15" s="1">
-        <v>44243398800.200401</v>
+        <v>4.4243398800200406E-5</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3506,7 +3519,7 @@
         <v>42</v>
       </c>
       <c r="D16" s="1">
-        <v>45671283783.7827</v>
+        <v>4.5671283783782704E-5</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -3550,7 +3563,7 @@
         <v>104</v>
       </c>
       <c r="D17" s="1">
-        <v>46277852612.289299</v>
+        <v>4.6277852612289301E-5</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -3594,7 +3607,7 @@
         <v>49</v>
       </c>
       <c r="D18" s="1">
-        <v>48857353418.249298</v>
+        <v>4.88573534182493E-5</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -3638,7 +3651,7 @@
         <v>42</v>
       </c>
       <c r="D19" s="1">
-        <v>56824925431.303703</v>
+        <v>5.6824925431303709E-5</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -3682,7 +3695,7 @@
         <v>61</v>
       </c>
       <c r="D20" s="1">
-        <v>592698959.03544998</v>
+        <v>5.9269895903545E-5</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -3726,7 +3739,7 @@
         <v>93</v>
       </c>
       <c r="D21" s="1">
-        <v>64000000000</v>
+        <v>6.4000000000000011E-5</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -4009,7 +4022,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4083,7 +4096,7 @@
         <v>152</v>
       </c>
       <c r="E2" s="1">
-        <v>892368565.83294106</v>
+        <v>8.923685658329411E-7</v>
       </c>
       <c r="F2" t="s">
         <v>155</v>
@@ -4130,7 +4143,7 @@
         <v>152</v>
       </c>
       <c r="E3" s="1">
-        <v>955513335.48059702</v>
+        <v>9.5551333548059716E-7</v>
       </c>
       <c r="F3" t="s">
         <v>155</v>
@@ -4177,7 +4190,7 @@
         <v>152</v>
       </c>
       <c r="E4" s="1">
-        <v>15543830513.6145</v>
+        <v>1.5543830513614501E-6</v>
       </c>
       <c r="F4" t="s">
         <v>155</v>
@@ -4224,7 +4237,7 @@
         <v>152</v>
       </c>
       <c r="E5" s="1">
-        <v>1674196651.80107</v>
+        <v>1.6741966518010702E-6</v>
       </c>
       <c r="F5" t="s">
         <v>155</v>
@@ -4271,7 +4284,7 @@
         <v>152</v>
       </c>
       <c r="E6" s="1">
-        <v>26912121549.030499</v>
+        <v>2.6912121549030498E-6</v>
       </c>
       <c r="F6" t="s">
         <v>171</v>
@@ -4318,7 +4331,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="1">
-        <v>33289576405.802601</v>
+        <v>3.3289576405802602E-6</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -4365,7 +4378,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="1">
-        <v>4710485537.2021503</v>
+        <v>4.7104855372021508E-6</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -4412,7 +4425,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="1">
-        <v>5193029777.4477501</v>
+        <v>5.1930297774477501E-6</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -4459,7 +4472,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="1">
-        <v>5857566452.1445198</v>
+        <v>5.8575664521445202E-6</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -4506,7 +4519,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="1">
-        <v>6876897333.1679096</v>
+        <v>6.8768973331679104E-6</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -4553,7 +4566,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="1">
-        <v>7750258665.90977</v>
+        <v>7.7502586659097706E-6</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -4600,7 +4613,7 @@
         <v>152</v>
       </c>
       <c r="E13" s="1">
-        <v>100489408573.226</v>
+        <v>1.0048940857322599E-5</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -4647,7 +4660,7 @@
         <v>42</v>
       </c>
       <c r="E14" s="1">
-        <v>104451988370.66299</v>
+        <v>1.0445198837066299E-5</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -4694,7 +4707,7 @@
         <v>49</v>
       </c>
       <c r="E15" s="1">
-        <v>104991782177.59599</v>
+        <v>1.0499178217759598E-5</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -4741,7 +4754,7 @@
         <v>42</v>
       </c>
       <c r="E16" s="1">
-        <v>117457369905.657</v>
+        <v>1.1745736990565699E-5</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -4788,7 +4801,7 @@
         <v>49</v>
       </c>
       <c r="E17" s="1">
-        <v>120776611775.235</v>
+        <v>1.2077661177523499E-5</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -4835,7 +4848,7 @@
         <v>28</v>
       </c>
       <c r="E18" s="1">
-        <v>133548729564.83099</v>
+        <v>1.3354872956483099E-5</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -4882,7 +4895,7 @@
         <v>42</v>
       </c>
       <c r="E19" s="1">
-        <v>13770009687.0683</v>
+        <v>1.3770009687068302E-5</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -4929,7 +4942,7 @@
         <v>13</v>
       </c>
       <c r="E20" s="1">
-        <v>14171770476.4734</v>
+        <v>1.41717704764734E-5</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -4976,7 +4989,7 @@
         <v>13</v>
       </c>
       <c r="E21" s="1">
-        <v>149821347051.49301</v>
+        <v>1.4982134705149301E-5</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -5020,7 +5033,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5106,7 +5119,7 @@
         <v>175</v>
       </c>
       <c r="H2" s="5">
-        <v>1050000000</v>
+        <v>1.05E-7</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>230</v>
@@ -5156,7 +5169,7 @@
         <v>233</v>
       </c>
       <c r="H3" s="5">
-        <v>1180000000</v>
+        <v>1.18E-7</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>234</v>
@@ -5206,7 +5219,7 @@
         <v>240</v>
       </c>
       <c r="H4" s="5">
-        <v>13300000</v>
+        <v>1.3300000000000001E-7</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>241</v>
@@ -5256,7 +5269,7 @@
         <v>245</v>
       </c>
       <c r="H5" s="5">
-        <v>136000000</v>
+        <v>1.36E-7</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>246</v>
@@ -5306,7 +5319,7 @@
         <v>249</v>
       </c>
       <c r="H6" s="5">
-        <v>136000000</v>
+        <v>1.36E-7</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>250</v>
@@ -5356,7 +5369,7 @@
         <v>9</v>
       </c>
       <c r="H7" s="5">
-        <v>1400000000</v>
+        <v>1.4000000000000001E-7</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>253</v>
@@ -5406,7 +5419,7 @@
         <v>256</v>
       </c>
       <c r="H8" s="5">
-        <v>1440000000</v>
+        <v>1.4399999999999999E-7</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>257</v>
@@ -5456,7 +5469,7 @@
         <v>261</v>
       </c>
       <c r="H9" s="5">
-        <v>1440000000</v>
+        <v>1.4399999999999999E-7</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>257</v>
@@ -5506,7 +5519,7 @@
         <v>265</v>
       </c>
       <c r="H10" s="5">
-        <v>1440000000</v>
+        <v>1.4399999999999999E-7</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>257</v>
@@ -5556,7 +5569,7 @@
         <v>269</v>
       </c>
       <c r="H11" s="5">
-        <v>167000000</v>
+        <v>1.67E-7</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>270</v>
@@ -5606,7 +5619,7 @@
         <v>274</v>
       </c>
       <c r="H12" s="5">
-        <v>188000000</v>
+        <v>1.8800000000000002E-7</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>257</v>
@@ -5656,7 +5669,7 @@
         <v>198</v>
       </c>
       <c r="H13" s="5">
-        <v>2890000000</v>
+        <v>2.8900000000000001E-7</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>277</v>
@@ -5706,7 +5719,7 @@
         <v>279</v>
       </c>
       <c r="H14" s="5">
-        <v>295000000</v>
+        <v>2.9500000000000003E-7</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>280</v>
@@ -5756,7 +5769,7 @@
         <v>211</v>
       </c>
       <c r="H15" s="5">
-        <v>338000000</v>
+        <v>3.3800000000000004E-7</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>284</v>
@@ -5806,7 +5819,7 @@
         <v>285</v>
       </c>
       <c r="H16" s="5">
-        <v>34700000</v>
+        <v>3.4700000000000002E-7</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>234</v>
@@ -5856,7 +5869,7 @@
         <v>287</v>
       </c>
       <c r="H17" s="5">
-        <v>376000000</v>
+        <v>3.7600000000000003E-7</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>288</v>
@@ -5906,7 +5919,7 @@
         <v>293</v>
       </c>
       <c r="H18" s="5">
-        <v>392000000</v>
+        <v>3.9200000000000002E-7</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>234</v>
@@ -5956,7 +5969,7 @@
         <v>295</v>
       </c>
       <c r="H19" s="5">
-        <v>404000000</v>
+        <v>4.0400000000000002E-7</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>234</v>
@@ -6006,7 +6019,7 @@
         <v>297</v>
       </c>
       <c r="H20" s="5">
-        <v>412000000</v>
+        <v>4.1162440899999998E-7</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>298</v>
@@ -6056,7 +6069,7 @@
         <v>302</v>
       </c>
       <c r="H21" s="5">
-        <v>412000000</v>
+        <v>4.1167600800000002E-7</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>277</v>
